--- a/Raw_DataSet/corp_list/DAX30_wiki.xlsx
+++ b/Raw_DataSet/corp_list/DAX30_wiki.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeohyeongyu\Desktop\finance_data\DAX30_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\bro_py\Raw_DataSet\corp_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +440,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -753,20 +768,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection sqref="A1:E31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" activeCellId="1" sqref="F10 P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,24 +815,24 @@
         <v>60617</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>7.84</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>140253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -834,7 +849,7 @@
         <v>113830</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -851,7 +866,7 @@
         <v>115200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -868,7 +883,7 @@
         <v>17659</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -885,24 +900,24 @@
         <v>124729</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>0.91</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>51305</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -919,24 +934,24 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>7.18</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>282488</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -953,7 +968,7 @@
         <v>99744</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -970,7 +985,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>65</v>
       </c>
@@ -987,24 +1002,24 @@
         <v>123287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>3.01</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>508036</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1021,7 +1036,7 @@
         <v>218341</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1053,7 @@
         <v>56490</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1055,24 +1070,24 @@
         <v>232873</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="7">
         <v>1.69</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>109319</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1089,24 +1104,24 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="7">
         <v>2.14</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>49450</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1123,7 +1138,7 @@
         <v>36299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1140,7 +1155,7 @@
         <v>64538</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>49613</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
@@ -1174,7 +1189,7 @@
         <v>43428</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
@@ -1191,7 +1206,7 @@
         <v>6054</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1208,7 +1223,7 @@
         <v>59762</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -1225,7 +1240,7 @@
         <v>84183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>364000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
@@ -1259,7 +1274,7 @@
         <v>156487</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
@@ -1276,7 +1291,7 @@
         <v>626715</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
